--- a/mbs-perturbation/bloated/MLP/smote/bloated-mlp-smote-results.xlsx
+++ b/mbs-perturbation/bloated/MLP/smote/bloated-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6239316239316239</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C2" t="n">
         <v>0.9909502262443439</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7657342657342658</v>
+        <v>0.7577854671280277</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8595647099772732</v>
+        <v>0.8626051882639586</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7822878228782287</v>
+        <v>0.9726027397260274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9636363636363636</v>
+        <v>0.9681818181818181</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8635437881873728</v>
+        <v>0.970387243735763</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9598519127930893</v>
+        <v>0.9924516659810777</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9766355140186916</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.95</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9312638580931263</v>
+        <v>0.9631336405529953</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9730357877416702</v>
+        <v>0.9907239819004525</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9638009049773756</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9600000000000001</v>
+        <v>0.9815668202764977</v>
       </c>
       <c r="E5" t="n">
-        <v>0.995475113122172</v>
+        <v>0.9960715754833402</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9592760180995475</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9600000000000001</v>
+        <v>0.9792147806004619</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9996709173179762</v>
+        <v>0.9985808309337721</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8630620711801523</v>
+        <v>0.9125367263791958</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9510571781160018</v>
+        <v>0.9664417935006171</v>
       </c>
       <c r="D7" t="n">
-        <v>0.896108382402953</v>
+        <v>0.9304175904587492</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9575196881904361</v>
+        <v>0.9680866485125202</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bloated/MLP/smote/bloated-mlp-smote-results.xlsx
+++ b/mbs-perturbation/bloated/MLP/smote/bloated-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6134453781512605</v>
+        <v>0.5929203539823009</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9909502262443439</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7577854671280277</v>
+        <v>0.7444444444444445</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8626051882639586</v>
+        <v>0.8805103834063512</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9726027397260274</v>
+        <v>0.9252336448598131</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9681818181818181</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="D3" t="n">
-        <v>0.970387243735763</v>
+        <v>0.9542168674698795</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9924516659810777</v>
+        <v>0.9872280389099279</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9766355140186916</v>
+        <v>0.9656862745098039</v>
       </c>
       <c r="C4" t="n">
-        <v>0.95</v>
+        <v>0.9800995024875622</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9631336405529953</v>
+        <v>0.9728395061728394</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9907239819004525</v>
+        <v>0.9932179896537213</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9638009049773756</v>
+        <v>0.99</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9815668202764977</v>
+        <v>0.9949748743718593</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9960715754833402</v>
+        <v>0.9999751243781094</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9592760180995475</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9792147806004619</v>
+        <v>0.9924812030075187</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9985808309337721</v>
+        <v>0.9999751243781094</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9125367263791958</v>
+        <v>0.8967680546703836</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9664417935006171</v>
+        <v>0.9880497512437809</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9304175904587492</v>
+        <v>0.9317913790933083</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9680866485125202</v>
+        <v>0.9721813321452439</v>
       </c>
     </row>
   </sheetData>
